--- a/mAP.xlsx
+++ b/mAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕设\yolov5-streamlit-main\yolov5-streamlit-main\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38D8078-AC55-4DDC-9108-835870BA101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D673E-4A00-448B-9EDD-D578E2789760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,16 @@
     <t>x</t>
   </si>
   <si>
-    <t>mAP1</t>
+    <t>MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mAP2</t>
+    <t>MT+T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mAP3</t>
+    <t>MT+T+SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1033,5 +1036,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>